--- a/trunk/Proyecto final/Exposiciones/SeguimientoExposiciones.xlsx
+++ b/trunk/Proyecto final/Exposiciones/SeguimientoExposiciones.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="23">
   <si>
     <t>Nro Exposicion</t>
   </si>
@@ -79,6 +79,12 @@
   </si>
   <si>
     <t>peker</t>
+  </si>
+  <si>
+    <t>muy bien</t>
+  </si>
+  <si>
+    <t>falta coordinacion de presentacion</t>
   </si>
 </sst>
 </file>
@@ -420,10 +426,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -562,6 +568,35 @@
         <v>9</v>
       </c>
       <c r="I6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1">
+        <v>41136</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7">
+        <v>8</v>
+      </c>
+      <c r="H7">
+        <v>8</v>
+      </c>
+      <c r="I7">
         <v>8</v>
       </c>
     </row>
